--- a/data/trans_orig/P27F_6-Urba-trans_orig.xlsx
+++ b/data/trans_orig/P27F_6-Urba-trans_orig.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mz1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="M5" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mz1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mz2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -543,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según recibimiento de atención fisioterapéutica cuando se necesitaba en Mz1 (tasa de respuesta: 99,9%)</t>
+          <t>Población según recibimiento de atención fisioterapéutica cuando se necesitaba en M5 (tasa de respuesta: 99,8%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -841,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>378</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>175632</t>
+          <t>1244513</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>167881</t>
+          <t>1182803</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>183320</t>
+          <t>1309761</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>76,63%</t>
+          <t>75,93%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>73,25%</t>
+          <t>72,17%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>79,98%</t>
+          <t>79,91%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>435</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>168573</t>
+          <t>1248846</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>160699</t>
+          <t>1187508</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>175844</t>
+          <t>1320236</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>71,11%</t>
+          <t>69,56%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>67,79%</t>
+          <t>66,14%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>74,17%</t>
+          <t>73,53%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1107</t>
+          <t>813</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>344205</t>
+          <t>2493359</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>334188</t>
+          <t>2398475</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>354513</t>
+          <t>2589606</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>73,82%</t>
+          <t>72,6%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>71,67%</t>
+          <t>69,84%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>76,03%</t>
+          <t>75,4%</t>
         </is>
       </c>
     </row>
@@ -954,107 +956,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>105</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>34316</t>
+          <t>297077</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28292</t>
+          <t>241061</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>41132</t>
+          <t>355360</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>18,13%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>21,68%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>145</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>33620</t>
+          <t>382772</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>28414</t>
+          <t>324977</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>39881</t>
+          <t>445101</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>21,32%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>11,99%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>24,79%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>250</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>67937</t>
+          <t>679849</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>59788</t>
+          <t>597347</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>76822</t>
+          <t>764560</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>19,8%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>12,82%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>16,48%</t>
+          <t>22,26%</t>
         </is>
       </c>
     </row>
@@ -1067,107 +1069,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7061</t>
+          <t>68412</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4378</t>
+          <t>44036</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11197</t>
+          <t>100473</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8565</t>
+          <t>99038</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6027</t>
+          <t>68802</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11951</t>
+          <t>137966</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>59</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>15627</t>
+          <t>167450</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>11598</t>
+          <t>126397</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>20049</t>
+          <t>214850</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>6,26%</t>
         </is>
       </c>
     </row>
@@ -1180,107 +1182,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12194</t>
+          <t>29018</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8541</t>
+          <t>13199</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16032</t>
+          <t>59441</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>26310</t>
+          <t>64769</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>21037</t>
+          <t>41925</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>31273</t>
+          <t>98492</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>38504</t>
+          <t>93787</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>32668</t>
+          <t>65477</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>45709</t>
+          <t>133788</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>3,9%</t>
         </is>
       </c>
     </row>
@@ -1293,22 +1295,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>517</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>229204</t>
+          <t>1639020</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>229204</t>
+          <t>1639020</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>229204</t>
+          <t>1639020</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1328,22 +1330,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>856</t>
+          <t>638</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>237068</t>
+          <t>1795425</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>237068</t>
+          <t>1795425</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>237068</t>
+          <t>1795425</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1363,22 +1365,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1540</t>
+          <t>1155</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>466272</t>
+          <t>3434445</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>466272</t>
+          <t>3434445</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>466272</t>
+          <t>3434445</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1523,107 +1525,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>329</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>56108</t>
+          <t>1103876</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>51665</t>
+          <t>1045101</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>59907</t>
+          <t>1154709</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>77,62%</t>
+          <t>80,43%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>71,47%</t>
+          <t>76,15%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>82,87%</t>
+          <t>84,14%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>47416</t>
+          <t>1027760</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>42890</t>
+          <t>966473</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>50772</t>
+          <t>1080627</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>72,32%</t>
+          <t>74,43%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>65,42%</t>
+          <t>69,99%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>77,44%</t>
+          <t>78,26%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>696</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>103524</t>
+          <t>2131636</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>97651</t>
+          <t>2048924</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>109072</t>
+          <t>2207984</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>75,1%</t>
+          <t>77,42%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>70,84%</t>
+          <t>74,42%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>79,12%</t>
+          <t>80,2%</t>
         </is>
       </c>
     </row>
@@ -1636,107 +1638,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10929</t>
+          <t>187780</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7702</t>
+          <t>142606</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>14740</t>
+          <t>237089</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>17,28%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>98</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>9035</t>
+          <t>246761</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>6541</t>
+          <t>201792</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>12221</t>
+          <t>302547</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>18,64%</t>
+          <t>21,91%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>159</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>19963</t>
+          <t>434541</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>15710</t>
+          <t>367999</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>25117</t>
+          <t>505649</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>18,37%</t>
         </is>
       </c>
     </row>
@@ -1749,107 +1751,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1568</t>
+          <t>34283</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>18048</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3396</t>
+          <t>55428</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2378</t>
+          <t>56557</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1158</t>
+          <t>37770</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4644</t>
+          <t>89110</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>36</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>3945</t>
+          <t>90840</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>2241</t>
+          <t>63785</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>6431</t>
+          <t>122209</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>4,44%</t>
         </is>
       </c>
     </row>
@@ -1862,107 +1864,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3685</t>
+          <t>46473</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2074</t>
+          <t>27165</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6303</t>
+          <t>74075</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>6734</t>
+          <t>49764</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>4685</t>
+          <t>30611</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>9759</t>
+          <t>76693</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>10419</t>
+          <t>96237</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>7451</t>
+          <t>69807</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>14051</t>
+          <t>135151</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>4,91%</t>
         </is>
       </c>
     </row>
@@ -1975,22 +1977,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>419</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>72290</t>
+          <t>1372412</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>72290</t>
+          <t>1372412</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>72290</t>
+          <t>1372412</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2010,22 +2012,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>508</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>65562</t>
+          <t>1380842</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>65562</t>
+          <t>1380842</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>65562</t>
+          <t>1380842</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2045,22 +2047,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>927</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>137852</t>
+          <t>2753254</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>137852</t>
+          <t>2753254</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>137852</t>
+          <t>2753254</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2097,7 +2099,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -2112,7 +2114,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -2132,7 +2134,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -2147,7 +2149,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
@@ -2167,7 +2169,7 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
@@ -2182,7 +2184,7 @@
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
@@ -2205,107 +2207,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>334298</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>290020</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>367805</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,06%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,59%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>86,99%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>300406</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>261983</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>331280</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,72%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,29%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,29%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>171</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>634704</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>579787</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>687784</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,44%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,83%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,83%</t>
         </is>
       </c>
     </row>
@@ -2318,107 +2320,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>49813</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>26248</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>82754</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,57%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>81595</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>54127</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>119857</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,02%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,41%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>36</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>131408</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>87745</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>179022</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,83%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,56%</t>
         </is>
       </c>
     </row>
@@ -2431,107 +2433,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>25276</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>9480</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>59328</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,03%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>18789</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6918</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>38955</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>44065</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>22306</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>76740</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,24%</t>
         </is>
       </c>
     </row>
@@ -2544,107 +2546,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>13427</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3552</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>37544</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6716</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>23761</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>20143</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6408</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>44675</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,38%</t>
         </is>
       </c>
     </row>
@@ -2657,107 +2659,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>422814</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>422814</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>422814</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>407506</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>407506</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>407506</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>223</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>830320</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>830320</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>830320</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
     </row>
@@ -2887,107 +2889,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>788</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>231740</t>
+          <t>2682687</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>223038</t>
+          <t>2587639</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>240054</t>
+          <t>2767185</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>76,86%</t>
+          <t>78,12%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>73,98%</t>
+          <t>75,35%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>79,62%</t>
+          <t>80,58%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>892</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>215988</t>
+          <t>2577012</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>207336</t>
+          <t>2481935</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>224364</t>
+          <t>2671931</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>71,37%</t>
+          <t>71,91%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>68,51%</t>
+          <t>69,25%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>74,14%</t>
+          <t>74,56%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1453</t>
+          <t>1680</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>447728</t>
+          <t>5259699</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>436152</t>
+          <t>5118756</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>460270</t>
+          <t>5388147</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>74,11%</t>
+          <t>74,95%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>72,2%</t>
+          <t>72,94%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>76,19%</t>
+          <t>76,78%</t>
         </is>
       </c>
     </row>
@@ -3000,107 +3002,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>178</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>45245</t>
+          <t>534670</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>37847</t>
+          <t>465711</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>53156</t>
+          <t>618467</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>15,01%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>267</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>42655</t>
+          <t>711128</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>36445</t>
+          <t>636303</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>49301</t>
+          <t>803281</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>19,84%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>17,76%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>22,41%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>445</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>87900</t>
+          <t>1245799</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>78500</t>
+          <t>1136092</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>97251</t>
+          <t>1364236</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>17,75%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>16,19%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>19,44%</t>
         </is>
       </c>
     </row>
@@ -3113,107 +3115,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>8629</t>
+          <t>127971</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>5858</t>
+          <t>90227</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>12398</t>
+          <t>173799</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>10943</t>
+          <t>174384</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>7927</t>
+          <t>136332</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>14558</t>
+          <t>234301</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>106</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>19572</t>
+          <t>302355</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>15129</t>
+          <t>244979</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>25021</t>
+          <t>368330</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>5,25%</t>
         </is>
       </c>
     </row>
@@ -3226,107 +3228,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>15880</t>
+          <t>88918</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>12036</t>
+          <t>60137</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>21063</t>
+          <t>127958</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>33043</t>
+          <t>121249</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>27788</t>
+          <t>89777</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>39292</t>
+          <t>159612</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>74</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>48923</t>
+          <t>210167</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>41870</t>
+          <t>163195</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>56368</t>
+          <t>262853</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>3,75%</t>
         </is>
       </c>
     </row>
@@ -3339,6 +3341,2973 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>1037</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>3434246</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>3434246</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>3434246</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1268</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>3583773</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>3583773</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>3583773</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>7018019</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>7018019</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>7018019</t>
+        </is>
+      </c>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población según recibimiento de atención fisioterapéutica cuando se necesitaba en Mz1 (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>175632</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>167881</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>183320</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>76,63%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>73,25%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>79,98%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>589</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>168573</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>160699</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>175844</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>71,11%</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>67,79%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>74,17%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1107</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>344205</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>334188</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>354513</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>73,82%</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>71,67%</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>76,03%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>34316</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>28292</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>41132</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>14,97%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>12,34%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>17,95%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>33620</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>28414</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>39881</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>14,18%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>11,99%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>16,82%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>67937</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>59788</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>76822</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>14,57%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>12,82%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>16,48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7061</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>11197</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3,08%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1,91%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4,89%</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>8565</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6027</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11951</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>3,61%</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>2,54%</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>5,04%</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>15627</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>11598</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>20049</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>3,35%</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>2,49%</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>4,3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12194</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8541</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>16032</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5,32%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3,73%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6,99%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>26310</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>21037</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>31273</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>11,1%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>8,87%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>13,19%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>38504</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>32668</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>45709</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>8,26%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>7,01%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>9,8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>229204</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>229204</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>229204</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>237068</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>237068</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>237068</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1540</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>466272</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>466272</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>466272</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>56108</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>51665</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>59907</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>77,62%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>71,47%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>82,87%</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>47416</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>42890</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>50772</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>72,32%</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>65,42%</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>77,44%</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>103524</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>97651</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>109072</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>75,1%</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>70,84%</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>79,12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10929</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7702</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14740</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15,12%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>10,65%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>20,39%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9035</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6541</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>12221</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>13,78%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>9,98%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>18,64%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>19963</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>15710</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>25117</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>14,48%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>11,4%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>18,22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1568</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3396</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2,17%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,74%</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4,7%</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2378</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1158</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>4644</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>3,63%</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1,77%</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>7,08%</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>3945</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>2241</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>6431</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>2,86%</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>1,63%</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>4,67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3685</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2074</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>6303</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>5,1%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2,87%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>8,72%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>6734</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>9759</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>10,27%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>7,15%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>14,89%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>10419</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>7451</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>14051</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>7,56%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>5,4%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>10,19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>72290</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>72290</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>72290</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>65562</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>65562</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>65562</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>137852</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>137852</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>137852</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>231740</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>223038</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>240054</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>76,86%</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>73,98%</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>79,62%</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>215988</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>207336</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>224364</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>71,37%</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>68,51%</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>74,14%</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1453</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>447728</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>436152</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>460270</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>74,11%</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>72,2%</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>76,19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>45245</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>37847</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>53156</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>15,01%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>12,55%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>17,63%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>42655</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>36445</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>49301</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>14,09%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>12,04%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>16,29%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>87900</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>78500</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>97251</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>14,55%</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>12,99%</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>16,1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>8629</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>5858</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>12398</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>2,86%</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1,94%</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>4,11%</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>10943</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>7927</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>14558</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>3,62%</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>2,62%</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>4,81%</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>19572</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>15129</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>25021</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>3,24%</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="W25" s="2" t="inlineStr">
+        <is>
+          <t>4,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>15880</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>12036</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>21063</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>5,27%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>3,99%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>6,99%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>33043</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>27788</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>39292</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>10,92%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>9,18%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>12,98%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>48923</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>41870</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>56368</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>8,1%</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>6,93%</t>
+        </is>
+      </c>
+      <c r="W26" s="2" t="inlineStr">
+        <is>
+          <t>9,33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
           <t>918</t>
         </is>
       </c>
@@ -3425,6 +6394,2973 @@
       <c r="T27" s="2" t="inlineStr">
         <is>
           <t>604123</t>
+        </is>
+      </c>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población según recibimiento de atención fisioterapéutica cuando se necesitaba en Mz2 (tasa de respuesta: 99,64%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>182978</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>176149</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>189867</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>80,8%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>77,79%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>83,85%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>175531</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>168367</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>182669</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>74,65%</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>71,6%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>77,68%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1173</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>358508</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>349334</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>368148</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>77,67%</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>75,68%</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>79,76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>29776</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>24224</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>36202</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>13,15%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>10,7%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15,99%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>35693</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>30212</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>41147</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>15,18%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>12,85%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>17,5%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>65469</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>57719</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>74243</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>14,18%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>12,5%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>16,08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4441</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2306</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7500</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1,96%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1,02%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3,31%</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>6552</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4466</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>9282</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2,79%</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3,95%</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>10992</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>7906</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>15046</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>2,38%</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>1,71%</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>3,26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>9254</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6239</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>13292</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4,09%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2,76%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5,87%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>17366</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>14056</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>22535</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>7,39%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>5,98%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>9,58%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>26619</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>21662</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>32751</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>5,77%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>4,69%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>7,1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>226448</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>226448</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>226448</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>882</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>235141</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>235141</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>235141</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1542</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>461589</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>461589</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>461589</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>59422</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>55251</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>62641</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>81,1%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>75,41%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>85,49%</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>48827</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>44801</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>52521</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>72,96%</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>66,95%</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>78,48%</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>108249</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>102277</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>113248</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>77,22%</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>72,96%</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>80,78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9457</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6708</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12913</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>12,91%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9,15%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17,62%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10385</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7287</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>13696</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>15,52%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>10,89%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>20,47%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>19842</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>15942</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>24766</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>14,15%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>11,37%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>17,67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2274</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1,35%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,34%</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3,1%</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2466</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1052</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>4424</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>3,68%</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1,57%</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>6,61%</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>3454</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>1701</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>5769</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>2,46%</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>1,21%</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>4,12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3405</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1725</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>6165</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4,65%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2,35%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>8,41%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>5241</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>3311</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>8074</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>7,83%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>4,95%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>12,07%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>8646</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>5991</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>12405</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>6,17%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>4,27%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>8,85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>73272</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>73272</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>73272</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>66919</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>66919</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>66919</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>140191</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>140191</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>140191</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>242399</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>234288</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>250644</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>80,88%</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>78,17%</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>83,63%</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>224358</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>217153</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>232573</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>74,28%</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>71,89%</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>77,0%</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1534</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>466757</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>453724</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>477952</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>77,56%</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>75,4%</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>79,42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>39233</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>33042</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>46252</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>13,09%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>11,02%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>15,43%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>46078</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>39984</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>52838</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>15,25%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>13,24%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>17,49%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>85311</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>75916</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>95091</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>14,18%</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>12,62%</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>15,8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>5429</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>3290</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>8856</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>1,81%</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1,1%</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>2,95%</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>9017</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>6275</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>12297</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>2,99%</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>2,08%</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>4,07%</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>14446</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>10657</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>18872</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>2,4%</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>1,77%</t>
+        </is>
+      </c>
+      <c r="W25" s="2" t="inlineStr">
+        <is>
+          <t>3,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>12659</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>9386</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>17538</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>4,22%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>3,13%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>5,85%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>22607</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>18043</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>27080</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>7,48%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>5,97%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>8,97%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>35266</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>29491</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>41582</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>5,86%</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>4,9%</t>
+        </is>
+      </c>
+      <c r="W26" s="2" t="inlineStr">
+        <is>
+          <t>6,91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>910</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>299720</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>299720</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>299720</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1108</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>302060</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>302060</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>302060</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>601780</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>601780</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>601780</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
